--- a/report/No5_テスト結果.xlsx
+++ b/report/No5_テスト結果.xlsx
@@ -7,15 +7,188 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ケース1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
+    <sheet name="4" sheetId="5" r:id="rId4"/>
+    <sheet name="5" sheetId="6" r:id="rId5"/>
+    <sheet name="6" sheetId="7" r:id="rId6"/>
+    <sheet name="7" sheetId="8" r:id="rId7"/>
+    <sheet name="8" sheetId="9" r:id="rId8"/>
+    <sheet name="9" sheetId="10" r:id="rId9"/>
+    <sheet name="10" sheetId="11" r:id="rId10"/>
+    <sheet name="11" sheetId="12" r:id="rId11"/>
+    <sheet name="12" sheetId="13" r:id="rId12"/>
+    <sheet name="13" sheetId="14" r:id="rId13"/>
+    <sheet name="14" sheetId="15" r:id="rId14"/>
+    <sheet name="15" sheetId="16" r:id="rId15"/>
+    <sheet name="16" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+  <si>
+    <t>削除リンクが表示されるページ</t>
+  </si>
+  <si>
+    <t>削除リンクが表示されるページ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入者編集</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除リンクの場所</t>
+  </si>
+  <si>
+    <t>加入者編集</t>
+    <rPh sb="0" eb="5">
+      <t>カニュウシャヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金編集</t>
+    <rPh sb="0" eb="4">
+      <t>リョウキンヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録されているデータを指定し削除ボタンをクリックしたときの動作</t>
+  </si>
+  <si>
+    <t>登録されているデータ指定</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面が表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面が表示されるページ</t>
+  </si>
+  <si>
+    <t>削除確認画面が表示されるページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面の場所</t>
+  </si>
+  <si>
+    <t>削除後、「削除しました。」という文字が表示されるページ</t>
+  </si>
+  <si>
+    <t>「削除してもよろしいですか？」と表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除してもよろしいですか？」と画面上に表示</t>
+    <rPh sb="16" eb="19">
+      <t>ガメンウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面の「OK」をクリックしたときに表示</t>
+  </si>
+  <si>
+    <t>「削除しました。」という文字の場所</t>
+  </si>
+  <si>
+    <t>「加入者検索」と「メールアドレス」の間に表示</t>
+  </si>
+  <si>
+    <t>削除処理</t>
+  </si>
+  <si>
+    <t>H2console1データベースのMEMBERテーブルから指定したレコードがなくなっている</t>
+  </si>
+  <si>
+    <t>削除前(レコード有)</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除後(レコード無)</t>
+    <rPh sb="0" eb="3">
+      <t>サクジョゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「料金検索」と「料金名」の間に表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2console1データベースのCHARGEテーブルから指定したレコードがなくなっている</t>
+  </si>
+  <si>
+    <t>加入者情報管理</t>
+    <rPh sb="0" eb="7">
+      <t>カニュウシャジョウホウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金情報管理</t>
+    <rPh sb="0" eb="6">
+      <t>リョウキンジョウホウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,6 +202,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,8 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -68,6 +250,1902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6858000" cy="5233359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7065</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6865065" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="下矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="3762375"/>
+          <a:ext cx="219075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6867525" cy="5240627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="3524250"/>
+          <a:ext cx="5048250" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7065</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="1028700"/>
+          <a:ext cx="6865065" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14487525" y="3790950"/>
+          <a:ext cx="219075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>97127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6858000"/>
+          <a:ext cx="6867525" cy="5240627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 処理 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="7372350"/>
+          <a:ext cx="3333750" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6867525" cy="5240627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6867525" cy="5240627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="1514475"/>
+          <a:ext cx="3267075" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19547</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6877547" cy="5248275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19547</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6877547" cy="5248275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="2590800"/>
+          <a:ext cx="5181600" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>610834</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1371600"/>
+          <a:ext cx="8840434" cy="4934639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="5314950"/>
+          <a:ext cx="6124575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>610834</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="6858000"/>
+          <a:ext cx="8840434" cy="4934639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1028701"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="4486275"/>
+          <a:ext cx="219075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6858000" cy="5233359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="4524375"/>
+          <a:ext cx="5114925" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="1038225"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14497050" y="4514850"/>
+          <a:ext cx="219075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6858000"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="7362825"/>
+          <a:ext cx="3333750" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="1543050"/>
+          <a:ext cx="3267075" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7064</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028701"/>
+          <a:ext cx="6865064" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7064</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6865064" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2581275"/>
+          <a:ext cx="5181600" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1381125"/>
+          <a:ext cx="10058400" cy="4089679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="4657725"/>
+          <a:ext cx="7781925" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>146329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="6000750"/>
+          <a:ext cx="10058400" cy="4089679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7065</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1028700"/>
+          <a:ext cx="6865065" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,20 +2435,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="52" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -550,15 +3257,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/report/No5_テスト結果.xlsx
+++ b/report/No5_テスト結果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>削除リンクが表示されるページ</t>
   </si>
@@ -183,6 +183,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>追加の時は表示されないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -298,6 +311,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="1028700"/>
+          <a:ext cx="6877050" cy="5247896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2137,6 +2188,44 @@
         <a:xfrm>
           <a:off x="1485900" y="1028700"/>
           <a:ext cx="6865065" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="1028700"/>
+          <a:ext cx="6858000" cy="5233359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2446,12 +2535,12 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -2459,9 +2548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3045,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3056,12 +3148,12 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3069,9 +3161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
